--- a/TFRateInvestigation.xlsx
+++ b/TFRateInvestigation.xlsx
@@ -125,6 +125,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Relaxation Times</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -157,11 +213,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -367,11 +423,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -579,11 +635,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -671,11 +727,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246334464"/>
-        <c:axId val="246336032"/>
+        <c:axId val="174013832"/>
+        <c:axId val="174014224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246334464"/>
+        <c:axId val="174013832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -788,12 +844,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246336032"/>
+        <c:crossAx val="174014224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246336032"/>
+        <c:axId val="174014224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,7 +963,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246334464"/>
+        <c:crossAx val="174013832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1008,7 +1065,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1041,7 +1098,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1064,119 +1121,100 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:v>MaximumForce</c:v>
+            <c:v>CaOff=100</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
+            <c:symbol val="circle"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$28</c:f>
+              <c:f>(Sheet1!$A$4,Sheet1!$A$7,Sheet1!$A$10,Sheet1!$A$13,Sheet1!$A$16,Sheet1!$A$19,Sheet1!$A$22,Sheet1!$A$25,Sheet1!$A$29,Sheet1!$A$28)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
                   <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
@@ -1184,10 +1222,434 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$28</c:f>
+              <c:f>(Sheet1!$E$4,Sheet1!$E$7,Sheet1!$E$10,Sheet1!$E$13,Sheet1!$E$16,Sheet1!$E$19,Sheet1!$E$22,Sheet1!$E$25,Sheet1!$E$28)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>567.75457800000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>517.89817200000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>496.83353099999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>613.31804899999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>638.64381100000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>581.66116099999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>714.36275899999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>674.98322499999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>625.97862599999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Koff=100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$20:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>918.06228899999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>819.51390800000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>714.36275899999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>908.52528900000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>825.21270500000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>674.98322499999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>767.48652100000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>769.05222500000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>625.97862599999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Koff=25</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$11:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$11:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>742.75470299999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>756.65530899999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>613.31804899999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>737.76162299999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>756.20030399999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>638.64381100000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>645.53915800000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>712.52834299999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>581.66116099999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Koff=5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>405.93752499999999</c:v>
                 </c:pt>
@@ -1214,60 +1676,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>496.83353099999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>742.75470299999995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>756.65530899999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>613.31804899999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>737.76162299999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>756.20030399999996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>638.64381100000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>645.53915800000004</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>712.52834299999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>581.66116099999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>918.06228899999996</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>819.51390800000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>714.36275899999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>908.52528900000004</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>825.21270500000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>674.98322499999995</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>767.48652100000004</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>769.05222500000002</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>625.97862599999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,11 +1690,275 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246336816"/>
-        <c:axId val="249679272"/>
+        <c:axId val="175090904"/>
+        <c:axId val="175091296"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>MaximumForce</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:gradFill rotWithShape="1">
+                      <a:gsLst>
+                        <a:gs pos="0">
+                          <a:schemeClr val="accent6">
+                            <a:satMod val="103000"/>
+                            <a:lumMod val="102000"/>
+                            <a:tint val="94000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="50000">
+                          <a:schemeClr val="accent6">
+                            <a:satMod val="110000"/>
+                            <a:lumMod val="100000"/>
+                            <a:shade val="100000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="100000">
+                          <a:schemeClr val="accent6">
+                            <a:lumMod val="99000"/>
+                            <a:satMod val="120000"/>
+                            <a:shade val="78000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                      </a:gsLst>
+                      <a:lin ang="5400000" scaled="0"/>
+                    </a:gradFill>
+                    <a:ln w="9525" cap="rnd">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="63000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$28</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$2:$E$28</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="0">
+                        <c:v>405.93752499999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>560.78778399999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>567.75457800000004</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>441.83404999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>510.71050000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>517.89817200000005</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>326.95347500000003</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>513.01024800000005</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>496.83353099999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>742.75470299999995</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>756.65530899999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>613.31804899999997</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>737.76162299999999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>756.20030399999996</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>638.64381100000003</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>645.53915800000004</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>712.52834299999995</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>581.66116099999999</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>918.06228899999996</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>819.51390800000001</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>714.36275899999998</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>908.52528900000004</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>825.21270500000003</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>674.98322499999995</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>767.48652100000004</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>769.05222500000002</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>625.97862599999996</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246336816"/>
+        <c:axId val="175090904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,14 +1984,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1328,7 +1994,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1343,12 +2009,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249679272"/>
+        <c:crossAx val="175091296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249679272"/>
+        <c:axId val="175091296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,14 +2041,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1405,7 +2066,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246336816"/>
+        <c:crossAx val="175090904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1417,13 +2078,45 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1455,13 +2148,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -1495,13 +2185,10 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2051,7 +2738,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2062,7 +2749,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2075,7 +2762,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -2085,18 +2772,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -2116,11 +2803,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -2152,45 +2839,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2202,18 +2879,15 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2221,15 +2895,15 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2251,13 +2925,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2272,15 +2948,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2291,16 +2967,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2309,10 +2986,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -2328,7 +3005,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -2336,7 +3013,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2355,16 +3032,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2373,34 +3051,36 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2416,20 +3096,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2443,7 +3123,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -2460,10 +3140,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2484,7 +3164,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2493,10 +3173,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2513,7 +3193,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -2529,8 +3209,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2546,17 +3226,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2564,7 +3233,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -2901,7 +3570,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TFRateInvestigation.xlsx
+++ b/TFRateInvestigation.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Index</t>
   </si>
@@ -50,6 +50,102 @@
   </si>
   <si>
     <t>RT90</t>
+  </si>
+  <si>
+    <t>Coop ON</t>
+  </si>
+  <si>
+    <t>Coop OFF</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Max_Raw Diff</t>
+  </si>
+  <si>
+    <t>Max_avg Diff</t>
+  </si>
+  <si>
+    <t>koff=5 RuOff=5 CaOff=5</t>
+  </si>
+  <si>
+    <t>koff=5 RuOff=5 CaOff=25</t>
+  </si>
+  <si>
+    <t>koff=5 RuOff=5 CaOff=100</t>
+  </si>
+  <si>
+    <t>koff=5 RuOff=25 CaOff=5</t>
+  </si>
+  <si>
+    <t>koff=5 RuOff=25 CaOff=25</t>
+  </si>
+  <si>
+    <t>koff=5 RuOff=25 CaOff=100</t>
+  </si>
+  <si>
+    <t>koff=5 RuOff=100 CaOff=5</t>
+  </si>
+  <si>
+    <t>koff=5 RuOff=100 CaOff=25</t>
+  </si>
+  <si>
+    <t>koff=5 RuOff=100 CaOff=100</t>
+  </si>
+  <si>
+    <t>koff=25 RuOff=5 CaOff=5</t>
+  </si>
+  <si>
+    <t>koff=25 RuOff=5 CaOff=25</t>
+  </si>
+  <si>
+    <t>koff=25 RuOff=5 CaOff=100</t>
+  </si>
+  <si>
+    <t>koff=25 RuOff=25 CaOff=5</t>
+  </si>
+  <si>
+    <t>koff=25 RuOff=25 CaOff=25</t>
+  </si>
+  <si>
+    <t>koff=25 RuOff=25 CaOff=100</t>
+  </si>
+  <si>
+    <t>koff=25 RuOff=100 CaOff=5</t>
+  </si>
+  <si>
+    <t>koff=25 RuOff=100 CaOff=25</t>
+  </si>
+  <si>
+    <t>koff=25 RuOff=100 CaOff=100</t>
+  </si>
+  <si>
+    <t>koff=100 RuOff=5 CaOff=5</t>
+  </si>
+  <si>
+    <t>koff=100 RuOff=5 CaOff=25</t>
+  </si>
+  <si>
+    <t>koff=100 RuOff=5 CaOff=100</t>
+  </si>
+  <si>
+    <t>koff=100 RuOff=25 CaOff=5</t>
+  </si>
+  <si>
+    <t>koff=100 RuOff=25 CaOff=25</t>
+  </si>
+  <si>
+    <t>koff=100 RuOff=25 CaOff=100</t>
+  </si>
+  <si>
+    <t>koff=100 RuOff=100 CaOff=5</t>
+  </si>
+  <si>
+    <t>koff=100 RuOff=100 CaOff=25</t>
+  </si>
+  <si>
+    <t>koff=100 RuOff=100 CaOff=100</t>
   </si>
 </sst>
 </file>
@@ -729,11 +825,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="184535272"/>
-        <c:axId val="184535664"/>
+        <c:axId val="176581120"/>
+        <c:axId val="176581512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="184535272"/>
+        <c:axId val="176581120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,13 +942,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184535664"/>
+        <c:crossAx val="176581512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="184535664"/>
+        <c:axId val="176581512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +1061,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184535272"/>
+        <c:crossAx val="176581120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1697,8 +1793,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="184536448"/>
-        <c:axId val="184536840"/>
+        <c:axId val="176582296"/>
+        <c:axId val="176582688"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -1965,7 +2061,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="184536448"/>
+        <c:axId val="176582296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2016,13 +2112,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184536840"/>
+        <c:crossAx val="176582688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="184536840"/>
+        <c:axId val="176582688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,7 +2169,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184536448"/>
+        <c:crossAx val="176582296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2355,85 +2451,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.222</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>9.8000000000000004E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.7000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.20899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.9000000000000005E-2</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.8000000000000003E-2</c:v>
+                  <c:v>7.6999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.27500000000000002</c:v>
+                  <c:v>0.24299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.113</c:v>
+                  <c:v>0.107</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0999999999999999E-2</c:v>
+                  <c:v>7.3999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.24199999999999999</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.2999999999999999E-2</c:v>
+                  <c:v>0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8000000000000003E-2</c:v>
+                  <c:v>8.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.26700000000000002</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.10299999999999999</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.2E-2</c:v>
+                  <c:v>7.0999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28899999999999998</c:v>
+                  <c:v>0.24299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12</c:v>
+                  <c:v>0.114</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.2999999999999995E-2</c:v>
+                  <c:v>7.3999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.28799999999999998</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.121</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.0999999999999994E-2</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.27700000000000002</c:v>
+                  <c:v>0.32900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.108</c:v>
+                  <c:v>0.11799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.3999999999999996E-2</c:v>
+                  <c:v>8.1000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2565,85 +2661,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.58399999999999996</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17699999999999999</c:v>
+                  <c:v>0.218</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3000000000000004E-2</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55700000000000005</c:v>
+                  <c:v>0.626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.182</c:v>
+                  <c:v>0.214</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5000000000000006E-2</c:v>
+                  <c:v>0.127</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56100000000000005</c:v>
+                  <c:v>0.54500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19500000000000001</c:v>
+                  <c:v>0.18099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.8000000000000004E-2</c:v>
+                  <c:v>0.13100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70099999999999996</c:v>
+                  <c:v>0.55300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.188</c:v>
+                  <c:v>0.19400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.09</c:v>
+                  <c:v>0.111</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.57299999999999995</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.189</c:v>
+                  <c:v>0.19900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.5999999999999993E-2</c:v>
+                  <c:v>0.115</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.66600000000000004</c:v>
+                  <c:v>0.72299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.18099999999999999</c:v>
+                  <c:v>0.192</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.5000000000000001E-2</c:v>
+                  <c:v>0.127</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.82299999999999995</c:v>
+                  <c:v>0.55300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.23100000000000001</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.11</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.65300000000000002</c:v>
+                  <c:v>0.47499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.19900000000000001</c:v>
+                  <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.106</c:v>
+                  <c:v>0.13100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.92200000000000004</c:v>
+                  <c:v>0.77700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.20599999999999999</c:v>
+                  <c:v>0.21299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.105</c:v>
+                  <c:v>0.123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2721,31 +2817,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.7000000000000002E-2</c:v>
+                  <c:v>7.5999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.06</c:v>
+                  <c:v>7.8E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8000000000000003E-2</c:v>
+                  <c:v>7.6999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0999999999999999E-2</c:v>
+                  <c:v>7.3999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8000000000000003E-2</c:v>
+                  <c:v>8.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.2E-2</c:v>
+                  <c:v>7.0999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.2999999999999995E-2</c:v>
+                  <c:v>7.3999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0999999999999994E-2</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3999999999999996E-2</c:v>
+                  <c:v>8.1000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2760,11 +2856,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="311885360"/>
-        <c:axId val="311886928"/>
+        <c:axId val="176583472"/>
+        <c:axId val="176583864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="311885360"/>
+        <c:axId val="176583472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2877,12 +2973,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311886928"/>
+        <c:crossAx val="176583864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="311886928"/>
+        <c:axId val="176583864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3000,7 +3096,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311885360"/>
+        <c:crossAx val="176583472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3228,31 +3324,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>342.874662</c:v>
+                  <c:v>241.711896</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>502.09088300000002</c:v>
+                  <c:v>482.81054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>503.80539499999998</c:v>
+                  <c:v>514.82866000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>352.66860800000001</c:v>
+                  <c:v>265.39475199999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>517.278235</c:v>
+                  <c:v>443.79090600000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>482.66753599999998</c:v>
+                  <c:v>489.79011700000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>352.31989299999998</c:v>
+                  <c:v>234.42427699999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>504.60744</c:v>
+                  <c:v>408.45192100000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>474.89253600000001</c:v>
+                  <c:v>483.16745700000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3330,31 +3426,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>670.90130399999998</c:v>
+                  <c:v>378.42443300000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>738.65913</c:v>
+                  <c:v>557.56840299999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>629.59762599999999</c:v>
+                  <c:v>529.88083300000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>719.65580299999999</c:v>
+                  <c:v>374.29699099999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>756.91698199999996</c:v>
+                  <c:v>477.59735000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>605.15728999999999</c:v>
+                  <c:v>467.97702700000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>604.44261600000004</c:v>
+                  <c:v>334.85337099999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>659.28547700000001</c:v>
+                  <c:v>426.22474299999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>548.85382500000003</c:v>
+                  <c:v>477.86685499999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3436,31 +3532,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>922.34810900000002</c:v>
+                  <c:v>459.07202799999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>848.71374200000002</c:v>
+                  <c:v>581.99035200000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>726.29333399999996</c:v>
+                  <c:v>494.37399900000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>894.05942000000005</c:v>
+                  <c:v>649.08526300000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>792.89001299999995</c:v>
+                  <c:v>599.12260100000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>696.48938399999997</c:v>
+                  <c:v>503.93653499999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>773.27529000000004</c:v>
+                  <c:v>588.12765100000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>721.74620300000004</c:v>
+                  <c:v>557.970688</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>635.71578599999998</c:v>
+                  <c:v>509.509592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3475,8 +3571,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="352516392"/>
-        <c:axId val="352516000"/>
+        <c:axId val="176584648"/>
+        <c:axId val="177317616"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -3631,85 +3727,85 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="27"/>
                       <c:pt idx="0">
-                        <c:v>342.874662</c:v>
+                        <c:v>241.711896</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>502.09088300000002</c:v>
+                        <c:v>482.81054</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>503.80539499999998</c:v>
+                        <c:v>514.82866000000001</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>352.66860800000001</c:v>
+                        <c:v>265.39475199999998</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>517.278235</c:v>
+                        <c:v>443.79090600000001</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>482.66753599999998</c:v>
+                        <c:v>489.79011700000001</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>352.31989299999998</c:v>
+                        <c:v>234.42427699999999</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>504.60744</c:v>
+                        <c:v>408.45192100000003</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>474.89253600000001</c:v>
+                        <c:v>483.16745700000001</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>670.90130399999998</c:v>
+                        <c:v>378.42443300000002</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>738.65913</c:v>
+                        <c:v>557.56840299999999</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>629.59762599999999</c:v>
+                        <c:v>529.88083300000005</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>719.65580299999999</c:v>
+                        <c:v>374.29699099999999</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>756.91698199999996</c:v>
+                        <c:v>477.59735000000001</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>605.15728999999999</c:v>
+                        <c:v>467.97702700000002</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>604.44261600000004</c:v>
+                        <c:v>334.85337099999998</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>659.28547700000001</c:v>
+                        <c:v>426.22474299999999</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>548.85382500000003</c:v>
+                        <c:v>477.86685499999999</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>922.34810900000002</c:v>
+                        <c:v>459.07202799999999</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>848.71374200000002</c:v>
+                        <c:v>581.99035200000003</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>726.29333399999996</c:v>
+                        <c:v>494.37399900000003</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>894.05942000000005</c:v>
+                        <c:v>649.08526300000005</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>792.89001299999995</c:v>
+                        <c:v>599.12260100000003</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>696.48938399999997</c:v>
+                        <c:v>503.93653499999999</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>773.27529000000004</c:v>
+                        <c:v>588.12765100000001</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>721.74620300000004</c:v>
+                        <c:v>557.970688</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>635.71578599999998</c:v>
+                        <c:v>509.509592</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3721,7 +3817,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="352516392"/>
+        <c:axId val="176584648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3834,12 +3930,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352516000"/>
+        <c:crossAx val="177317616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="352516000"/>
+        <c:axId val="177317616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3957,7 +4053,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352516392"/>
+        <c:crossAx val="176584648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4115,224 +4211,6 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RT50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$G$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0.23899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.104</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.221</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.7000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.26400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.112</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.254</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.10299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.8999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.28899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.105</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.8999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.28199999999999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.112</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.4999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.246</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.11899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.1999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.317</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.113</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.5999999999999998E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -4654,11 +4532,253 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="359272240"/>
-        <c:axId val="312812224"/>
+        <c:axId val="177319968"/>
+        <c:axId val="177320360"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>RT50</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$28</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$2:$G$28</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="0">
+                        <c:v>0.23899999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.104</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.221</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9.7000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.9000000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.19500000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9.2999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5.2999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.26400000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.112</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>6.2E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.254</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.10299999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>5.8999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.28899999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.105</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>5.8999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.28199999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.112</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>7.4999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.246</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.11899999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>7.1999999999999995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.317</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.113</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>7.5999999999999998E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="359272240"/>
+        <c:axId val="177319968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4771,13 +4891,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312812224"/>
+        <c:crossAx val="177320360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="312812224"/>
+        <c:axId val="177320360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4890,7 +5010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359272240"/>
+        <c:crossAx val="177319968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5622,8 +5742,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="311409280"/>
-        <c:axId val="355192296"/>
+        <c:axId val="177757112"/>
+        <c:axId val="177757504"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -5890,7 +6010,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="311409280"/>
+        <c:axId val="177757112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5941,13 +6061,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355192296"/>
+        <c:crossAx val="177757504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="355192296"/>
+        <c:axId val="177757504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5998,7 +6118,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311409280"/>
+        <c:crossAx val="177757112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6100,6 +6220,1092 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Max Force w/o coop</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>koff=5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NoCoop!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NoCoop!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>241.711896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>482.81054</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>514.82866000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265.39475199999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>443.79090600000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>489.79011700000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>234.42427699999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>408.45192100000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>483.16745700000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>koff=25</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NoCoop!$A$11:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NoCoop!$E$11:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>378.42443300000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>557.56840299999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>529.88083300000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>374.29699099999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>477.59735000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>467.97702700000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>334.85337099999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>426.22474299999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>477.86685499999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>koff=100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NoCoop!$A$20:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NoCoop!$E$20:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>459.07202799999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>581.99035200000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>494.37399900000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>649.08526300000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>599.12260100000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>503.93653499999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>588.12765100000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>557.970688</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>509.509592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="297930224"/>
+        <c:axId val="297930616"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>NoCoop!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Max_raw</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:gradFill rotWithShape="1">
+                      <a:gsLst>
+                        <a:gs pos="0">
+                          <a:schemeClr val="accent6">
+                            <a:satMod val="103000"/>
+                            <a:lumMod val="102000"/>
+                            <a:tint val="94000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="50000">
+                          <a:schemeClr val="accent6">
+                            <a:satMod val="110000"/>
+                            <a:lumMod val="100000"/>
+                            <a:shade val="100000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="100000">
+                          <a:schemeClr val="accent6">
+                            <a:lumMod val="99000"/>
+                            <a:satMod val="120000"/>
+                            <a:shade val="78000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                      </a:gsLst>
+                      <a:lin ang="5400000" scaled="0"/>
+                    </a:gradFill>
+                    <a:ln w="9525" cap="rnd">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="63000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>NoCoop!$A$2:$A$28</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>NoCoop!$E$2:$E$28</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="0">
+                        <c:v>241.711896</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>482.81054</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>514.82866000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>265.39475199999998</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>443.79090600000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>489.79011700000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>234.42427699999999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>408.45192100000003</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>483.16745700000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>378.42443300000002</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>557.56840299999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>529.88083300000005</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>374.29699099999999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>477.59735000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>467.97702700000002</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>334.85337099999998</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>426.22474299999999</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>477.86685499999999</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>459.07202799999999</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>581.99035200000003</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>494.37399900000003</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>649.08526300000005</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>599.12260100000003</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>503.93653499999999</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>588.12765100000001</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>557.970688</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>509.509592</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="297930224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297930616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="297930616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Force (pN)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297930224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -6114,7 +7320,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>RelaxationTime</a:t>
+              <a:t>RelaxationTime w/o coop</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6156,216 +7362,6 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>RT50</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>NoCoop!$A$2:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>NoCoop!$G$2:$G$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0.23799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.8000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.7000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.20899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.9000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.8000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.27500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.113</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.24199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.8000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.26700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.10299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.28899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.2999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.28799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.121</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.0999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.27700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.108</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.3999999999999996E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -6490,85 +7486,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.58399999999999996</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17699999999999999</c:v>
+                  <c:v>0.218</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3000000000000004E-2</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55700000000000005</c:v>
+                  <c:v>0.626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.182</c:v>
+                  <c:v>0.214</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5000000000000006E-2</c:v>
+                  <c:v>0.127</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56100000000000005</c:v>
+                  <c:v>0.54500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19500000000000001</c:v>
+                  <c:v>0.18099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.8000000000000004E-2</c:v>
+                  <c:v>0.13100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70099999999999996</c:v>
+                  <c:v>0.55300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.188</c:v>
+                  <c:v>0.19400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.09</c:v>
+                  <c:v>0.111</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.57299999999999995</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.189</c:v>
+                  <c:v>0.19900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.5999999999999993E-2</c:v>
+                  <c:v>0.115</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.66600000000000004</c:v>
+                  <c:v>0.72299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.18099999999999999</c:v>
+                  <c:v>0.192</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.5000000000000001E-2</c:v>
+                  <c:v>0.127</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.82299999999999995</c:v>
+                  <c:v>0.55300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.23100000000000001</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.11</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.65300000000000002</c:v>
+                  <c:v>0.47499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.19900000000000001</c:v>
+                  <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.106</c:v>
+                  <c:v>0.13100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.92200000000000004</c:v>
+                  <c:v>0.77700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.20599999999999999</c:v>
+                  <c:v>0.21299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.105</c:v>
+                  <c:v>0.123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6646,31 +7642,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.7000000000000002E-2</c:v>
+                  <c:v>7.5999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.06</c:v>
+                  <c:v>7.8E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8000000000000003E-2</c:v>
+                  <c:v>7.6999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0999999999999999E-2</c:v>
+                  <c:v>7.3999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8000000000000003E-2</c:v>
+                  <c:v>8.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.2E-2</c:v>
+                  <c:v>7.0999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.2999999999999995E-2</c:v>
+                  <c:v>7.3999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0999999999999994E-2</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3999999999999996E-2</c:v>
+                  <c:v>8.1000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6685,11 +7681,239 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="186014008"/>
-        <c:axId val="186014400"/>
+        <c:axId val="372466312"/>
+        <c:axId val="372463568"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>RT50</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>NoCoop!$A$2:$A$28</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>NoCoop!$G$2:$G$28</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="0">
+                        <c:v>0.222</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.109</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.5999999999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.26200000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.12</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.8E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.24099999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9.8000000000000004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.6999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.24299999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.107</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>7.3999999999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.24</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.10299999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>8.2000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.21199999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.11</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>7.0999999999999994E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.24299999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.114</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>7.3999999999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.121</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>7.9000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.32900000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.11799999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>8.1000000000000003E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="186014008"/>
+        <c:axId val="372466312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6802,13 +8026,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186014400"/>
+        <c:crossAx val="372463568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="186014400"/>
+        <c:axId val="372463568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6926,7 +8149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186014008"/>
+        <c:crossAx val="372466312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7007,7 +8230,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7042,8 +8265,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Max Force</a:t>
+              <a:t>Max</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Force Diff</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7084,10 +8312,264 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$I$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max_Raw Diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Compare!$A$46:$A$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Compare!$I$46:$I$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>164.225629</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.977243999999985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.925918000000024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>176.43929800000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.919594000000018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.108055000000036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.529198000000036</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>104.55832700000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.666073999999981</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>364.33026999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>199.086906</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.437215999999921</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>363.46463199999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>278.60295399999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>170.66678400000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>310.68578700000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>286.30359999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>103.79430600000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>458.99026099999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>237.52355599999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>219.98875999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>259.44002599999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>226.090104</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>171.04668999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>179.35887000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>211.08153700000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>116.46903399999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>koff=5</c:v>
+            <c:v>CaOff=5</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -7149,7 +8631,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>NoCoop!$A$2:$A$10</c:f>
+              <c:f>(Compare!$A$46,Compare!$A$49,Compare!$A$52,Compare!$A$55,Compare!$A$58,Compare!$A$61,Compare!$A$64,Compare!$A$67,Compare!$A$70)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -7157,64 +8639,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>NoCoop!$E$2:$E$10</c:f>
+              <c:f>(Compare!$I$46,Compare!$I$49,Compare!$I$52,Compare!$I$55,Compare!$I$58,Compare!$I$61,Compare!$I$64,Compare!$I$67,Compare!$I$70)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>342.874662</c:v>
+                  <c:v>164.225629</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>502.09088300000002</c:v>
+                  <c:v>176.43929800000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>503.80539499999998</c:v>
+                  <c:v>92.529198000000036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>352.66860800000001</c:v>
+                  <c:v>364.33026999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>517.278235</c:v>
+                  <c:v>363.46463199999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>482.66753599999998</c:v>
+                  <c:v>310.68578700000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>352.31989299999998</c:v>
+                  <c:v>458.99026099999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>504.60744</c:v>
+                  <c:v>259.44002599999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>474.89253600000001</c:v>
+                  <c:v>179.35887000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7225,7 +8707,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>koff=25</c:v>
+            <c:v>CaOff=25</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -7287,72 +8769,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>NoCoop!$A$11:$A$19</c:f>
+              <c:f>(Compare!$A$47,Compare!$A$50,Compare!$A$53,Compare!$A$56,Compare!$A$59,Compare!$A$62,Compare!$A$65,Compare!$A$68,Compare!$A$71)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>NoCoop!$E$11:$E$19</c:f>
+              <c:f>(Compare!$I$47,Compare!$I$50,Compare!$I$53,Compare!$I$56,Compare!$I$59,Compare!$I$62,Compare!$I$65,Compare!$I$68,Compare!$I$71)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>670.90130399999998</c:v>
+                  <c:v>77.977243999999985</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>738.65913</c:v>
+                  <c:v>66.919594000000018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>629.59762599999999</c:v>
+                  <c:v>104.55832700000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>719.65580299999999</c:v>
+                  <c:v>199.086906</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>756.91698199999996</c:v>
+                  <c:v>278.60295399999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>605.15728999999999</c:v>
+                  <c:v>286.30359999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>604.44261600000004</c:v>
+                  <c:v>237.52355599999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>659.28547700000001</c:v>
+                  <c:v>226.090104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>548.85382500000003</c:v>
+                  <c:v>211.08153700000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7363,7 +8845,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>koff=100</c:v>
+            <c:v>CaOff=100</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -7430,33 +8912,33 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>NoCoop!$A$20:$A$28</c:f>
+              <c:f>(Compare!$A$48,Compare!$A$51,Compare!$A$54,Compare!$A$57,Compare!$A$60,Compare!$A$63,Compare!$A$66,Compare!$A$69,Compare!$A$72)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>27</c:v>
@@ -7466,36 +8948,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>NoCoop!$E$20:$E$28</c:f>
+              <c:f>(Compare!$I$48,Compare!$I$51,Compare!$I$54,Compare!$I$57,Compare!$I$60,Compare!$I$63,Compare!$I$66,Compare!$I$69,Compare!$I$72)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>922.34810900000002</c:v>
+                  <c:v>52.925918000000024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>848.71374200000002</c:v>
+                  <c:v>28.108055000000036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>726.29333399999996</c:v>
+                  <c:v>13.666073999999981</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>894.05942000000005</c:v>
+                  <c:v>83.437215999999921</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>792.89001299999995</c:v>
+                  <c:v>170.66678400000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>696.48938399999997</c:v>
+                  <c:v>103.79430600000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>773.27529000000004</c:v>
+                  <c:v>219.98875999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>721.74620300000004</c:v>
+                  <c:v>171.04668999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>635.71578599999998</c:v>
+                  <c:v>116.46903399999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7510,289 +8992,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="357108216"/>
-        <c:axId val="357108608"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>NoCoop!$E$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Max_raw</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="25400" cap="rnd">
-                    <a:noFill/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst>
-                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="000000">
-                        <a:alpha val="63000"/>
-                      </a:srgbClr>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="6"/>
-                  <c:spPr>
-                    <a:gradFill rotWithShape="1">
-                      <a:gsLst>
-                        <a:gs pos="0">
-                          <a:schemeClr val="accent6">
-                            <a:satMod val="103000"/>
-                            <a:lumMod val="102000"/>
-                            <a:tint val="94000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="50000">
-                          <a:schemeClr val="accent6">
-                            <a:satMod val="110000"/>
-                            <a:lumMod val="100000"/>
-                            <a:shade val="100000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="100000">
-                          <a:schemeClr val="accent6">
-                            <a:lumMod val="99000"/>
-                            <a:satMod val="120000"/>
-                            <a:shade val="78000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                      </a:gsLst>
-                      <a:lin ang="5400000" scaled="0"/>
-                    </a:gradFill>
-                    <a:ln w="9525" cap="rnd">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6"/>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst>
-                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                        <a:srgbClr val="000000">
-                          <a:alpha val="63000"/>
-                        </a:srgbClr>
-                      </a:outerShdw>
-                    </a:effectLst>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>NoCoop!$A$2:$A$28</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>21</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>24</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>26</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>27</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>NoCoop!$E$2:$E$28</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
-                      <c:pt idx="0">
-                        <c:v>342.874662</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>502.09088300000002</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>503.80539499999998</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>352.66860800000001</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>517.278235</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>482.66753599999998</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>352.31989299999998</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>504.60744</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>474.89253600000001</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>670.90130399999998</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>738.65913</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>629.59762599999999</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>719.65580299999999</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>756.91698199999996</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>605.15728999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>604.44261600000004</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>659.28547700000001</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>548.85382500000003</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>922.34810900000002</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>848.71374200000002</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>726.29333399999996</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>894.05942000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>792.89001299999995</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>696.48938399999997</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>773.27529000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>721.74620300000004</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>635.71578599999998</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="376319248"/>
+        <c:axId val="376320032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="357108216"/>
+        <c:axId val="376319248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7874,8 +9078,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -7899,13 +9109,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357108608"/>
+        <c:crossAx val="376320032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357108608"/>
+        <c:axId val="376320032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7946,8 +9156,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Force (pN)</a:t>
+                  <a:t>Peak</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Force Difference</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -8012,7 +9227,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357108216"/>
+        <c:crossAx val="376319248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8389,6 +9604,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -11458,7 +12710,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11469,7 +12721,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -11482,11 +12734,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11499,7 +12751,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -11515,7 +12767,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -11559,6 +12811,508 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -11973,7 +13727,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12673,20 +14427,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12705,20 +14459,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>454025</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="8" name="Chart 7"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12730,6 +14484,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>385761</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>554036</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13003,8 +14787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13749,7 +15533,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:E20"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13794,16 +15578,16 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>342.874662</v>
+        <v>241.711896</v>
       </c>
       <c r="F2">
-        <v>310.47106171428601</v>
+        <v>199.37898628571401</v>
       </c>
       <c r="G2">
-        <v>0.23799999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="H2">
-        <v>0.58399999999999996</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -13820,16 +15604,16 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>502.09088300000002</v>
+        <v>482.81054</v>
       </c>
       <c r="F3">
-        <v>454.24697028571399</v>
+        <v>432.51516028571399</v>
       </c>
       <c r="G3">
-        <v>9.8000000000000004E-2</v>
+        <v>0.109</v>
       </c>
       <c r="H3">
-        <v>0.17699999999999999</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -13846,16 +15630,16 @@
         <v>100</v>
       </c>
       <c r="E4">
-        <v>503.80539499999998</v>
+        <v>514.82866000000001</v>
       </c>
       <c r="F4">
-        <v>482.19073128571398</v>
+        <v>456.70085942857099</v>
       </c>
       <c r="G4">
-        <v>5.7000000000000002E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="H4">
-        <v>8.3000000000000004E-2</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -13872,16 +15656,16 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>352.66860800000001</v>
+        <v>265.39475199999998</v>
       </c>
       <c r="F5">
-        <v>316.847087285714</v>
+        <v>223.44151557142899</v>
       </c>
       <c r="G5">
-        <v>0.20899999999999999</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="H5">
-        <v>0.55700000000000005</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -13898,16 +15682,16 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>517.278235</v>
+        <v>443.79090600000001</v>
       </c>
       <c r="F6">
-        <v>463.99856985714302</v>
+        <v>398.23743128571402</v>
       </c>
       <c r="G6">
-        <v>9.4E-2</v>
+        <v>0.12</v>
       </c>
       <c r="H6">
-        <v>0.182</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -13924,16 +15708,16 @@
         <v>100</v>
       </c>
       <c r="E7">
-        <v>482.66753599999998</v>
+        <v>489.79011700000001</v>
       </c>
       <c r="F7">
-        <v>464.72560185714298</v>
+        <v>442.62500828571399</v>
       </c>
       <c r="G7">
-        <v>0.06</v>
+        <v>7.8E-2</v>
       </c>
       <c r="H7">
-        <v>8.5000000000000006E-2</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -13950,16 +15734,16 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>352.31989299999998</v>
+        <v>234.42427699999999</v>
       </c>
       <c r="F8">
-        <v>291.654449</v>
+        <v>180.60144028571401</v>
       </c>
       <c r="G8">
-        <v>0.19500000000000001</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="H8">
-        <v>0.56100000000000005</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -13976,16 +15760,16 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>504.60744</v>
+        <v>408.45192100000003</v>
       </c>
       <c r="F9">
-        <v>446.73838899999998</v>
+        <v>361.96043357142901</v>
       </c>
       <c r="G9">
-        <v>9.9000000000000005E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H9">
-        <v>0.19500000000000001</v>
+        <v>0.18099999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -14002,16 +15786,16 @@
         <v>100</v>
       </c>
       <c r="E10">
-        <v>474.89253600000001</v>
+        <v>483.16745700000001</v>
       </c>
       <c r="F10">
-        <v>430.26492528571401</v>
+        <v>427.10118271428598</v>
       </c>
       <c r="G10">
-        <v>5.8000000000000003E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="H10">
-        <v>9.8000000000000004E-2</v>
+        <v>0.13100000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -14028,16 +15812,16 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>670.90130399999998</v>
+        <v>378.42443300000002</v>
       </c>
       <c r="F11">
-        <v>614.02033500000005</v>
+        <v>346.20737857142899</v>
       </c>
       <c r="G11">
-        <v>0.27500000000000002</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="H11">
-        <v>0.70099999999999996</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -14054,16 +15838,16 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>738.65913</v>
+        <v>557.56840299999999</v>
       </c>
       <c r="F12">
-        <v>700.31446842857099</v>
+        <v>499.02939357142901</v>
       </c>
       <c r="G12">
-        <v>0.113</v>
+        <v>0.107</v>
       </c>
       <c r="H12">
-        <v>0.188</v>
+        <v>0.19400000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -14080,16 +15864,16 @@
         <v>100</v>
       </c>
       <c r="E13">
-        <v>629.59762599999999</v>
+        <v>529.88083300000005</v>
       </c>
       <c r="F13">
-        <v>592.36372042857204</v>
+        <v>476.844036571429</v>
       </c>
       <c r="G13">
-        <v>6.0999999999999999E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="H13">
-        <v>0.09</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -14106,16 +15890,16 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>719.65580299999999</v>
+        <v>374.29699099999999</v>
       </c>
       <c r="F14">
-        <v>653.22046642857197</v>
+        <v>343.39077900000001</v>
       </c>
       <c r="G14">
-        <v>0.24199999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="H14">
-        <v>0.57299999999999995</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -14132,16 +15916,16 @@
         <v>25</v>
       </c>
       <c r="E15">
-        <v>756.91698199999996</v>
+        <v>477.59735000000001</v>
       </c>
       <c r="F15">
-        <v>711.03339400000004</v>
+        <v>447.94840071428598</v>
       </c>
       <c r="G15">
-        <v>9.2999999999999999E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="H15">
-        <v>0.189</v>
+        <v>0.19900000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -14158,16 +15942,16 @@
         <v>100</v>
       </c>
       <c r="E16">
-        <v>605.15728999999999</v>
+        <v>467.97702700000002</v>
       </c>
       <c r="F16">
-        <v>563.56368285714302</v>
+        <v>438.22164657142901</v>
       </c>
       <c r="G16">
-        <v>5.8000000000000003E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="H16">
-        <v>8.5999999999999993E-2</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -14184,16 +15968,16 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <v>604.44261600000004</v>
+        <v>334.85337099999998</v>
       </c>
       <c r="F17">
-        <v>557.43143428571398</v>
+        <v>265.09138414285701</v>
       </c>
       <c r="G17">
-        <v>0.26700000000000002</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="H17">
-        <v>0.66600000000000004</v>
+        <v>0.72299999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -14210,16 +15994,16 @@
         <v>25</v>
       </c>
       <c r="E18">
-        <v>659.28547700000001</v>
+        <v>426.22474299999999</v>
       </c>
       <c r="F18">
-        <v>634.89927214285694</v>
+        <v>388.78754199999997</v>
       </c>
       <c r="G18">
-        <v>0.10299999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="H18">
-        <v>0.18099999999999999</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -14236,16 +16020,16 @@
         <v>100</v>
       </c>
       <c r="E19">
-        <v>548.85382500000003</v>
+        <v>477.86685499999999</v>
       </c>
       <c r="F19">
-        <v>513.834544142857</v>
+        <v>428.264146428571</v>
       </c>
       <c r="G19">
-        <v>6.2E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="H19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -14262,16 +16046,16 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <v>922.34810900000002</v>
+        <v>459.07202799999999</v>
       </c>
       <c r="F20">
-        <v>867.95432171428604</v>
+        <v>411.330268285714</v>
       </c>
       <c r="G20">
-        <v>0.28899999999999998</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="H20">
-        <v>0.82299999999999995</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -14288,16 +16072,16 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>848.71374200000002</v>
+        <v>581.99035200000003</v>
       </c>
       <c r="F21">
-        <v>825.26110671428603</v>
+        <v>553.95188742857204</v>
       </c>
       <c r="G21">
-        <v>0.12</v>
+        <v>0.114</v>
       </c>
       <c r="H21">
-        <v>0.23100000000000001</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -14314,16 +16098,16 @@
         <v>100</v>
       </c>
       <c r="E22">
-        <v>726.29333399999996</v>
+        <v>494.37399900000003</v>
       </c>
       <c r="F22">
-        <v>658.54369614285702</v>
+        <v>455.305225857143</v>
       </c>
       <c r="G22">
-        <v>7.2999999999999995E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="H22">
-        <v>0.11</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -14340,16 +16124,16 @@
         <v>5</v>
       </c>
       <c r="E23">
-        <v>894.05942000000005</v>
+        <v>649.08526300000005</v>
       </c>
       <c r="F23">
-        <v>801.57100685714295</v>
+        <v>592.97664628571397</v>
       </c>
       <c r="G23">
-        <v>0.28799999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="H23">
-        <v>0.65300000000000002</v>
+        <v>0.47499999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -14366,16 +16150,16 @@
         <v>25</v>
       </c>
       <c r="E24">
-        <v>792.89001299999995</v>
+        <v>599.12260100000003</v>
       </c>
       <c r="F24">
-        <v>768.48249828571397</v>
+        <v>567.98321185714303</v>
       </c>
       <c r="G24">
         <v>0.121</v>
       </c>
       <c r="H24">
-        <v>0.19900000000000001</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -14392,16 +16176,16 @@
         <v>100</v>
       </c>
       <c r="E25">
-        <v>696.48938399999997</v>
+        <v>503.93653499999999</v>
       </c>
       <c r="F25">
-        <v>668.42334457142897</v>
+        <v>480.98923428571402</v>
       </c>
       <c r="G25">
-        <v>7.0999999999999994E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="H25">
-        <v>0.106</v>
+        <v>0.13100000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -14418,16 +16202,16 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <v>773.27529000000004</v>
+        <v>588.12765100000001</v>
       </c>
       <c r="F26">
-        <v>732.57552414285703</v>
+        <v>526.59098257142898</v>
       </c>
       <c r="G26">
-        <v>0.27700000000000002</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="H26">
-        <v>0.92200000000000004</v>
+        <v>0.77700000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -14444,16 +16228,16 @@
         <v>25</v>
       </c>
       <c r="E27">
-        <v>721.74620300000004</v>
+        <v>557.970688</v>
       </c>
       <c r="F27">
-        <v>691.87085214285696</v>
+        <v>525.805770142857</v>
       </c>
       <c r="G27">
-        <v>0.108</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="H27">
-        <v>0.20599999999999999</v>
+        <v>0.21299999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -14470,16 +16254,16 @@
         <v>100</v>
       </c>
       <c r="E28">
-        <v>635.71578599999998</v>
+        <v>509.509592</v>
       </c>
       <c r="F28">
-        <v>590.89165514285696</v>
+        <v>473.780996571429</v>
       </c>
       <c r="G28">
-        <v>7.3999999999999996E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H28">
-        <v>0.105</v>
+        <v>0.123</v>
       </c>
     </row>
   </sheetData>
@@ -14490,14 +16274,1201 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A44:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>405.93752499999999</v>
+      </c>
+      <c r="F46">
+        <v>351.14709757142901</v>
+      </c>
+      <c r="G46">
+        <v>241.711896</v>
+      </c>
+      <c r="H46">
+        <v>199.37898628571401</v>
+      </c>
+      <c r="I46">
+        <f>E46-G46</f>
+        <v>164.225629</v>
+      </c>
+      <c r="J46">
+        <f>F46-H46</f>
+        <v>151.76811128571501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>25</v>
+      </c>
+      <c r="E47">
+        <v>560.78778399999999</v>
+      </c>
+      <c r="F47">
+        <v>523.61627457142902</v>
+      </c>
+      <c r="G47">
+        <v>482.81054</v>
+      </c>
+      <c r="H47">
+        <v>432.51516028571399</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ref="I47:I72" si="0">E47-G47</f>
+        <v>77.977243999999985</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ref="J47:J72" si="1">F47-H47</f>
+        <v>91.101114285715028</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+      <c r="E48">
+        <v>567.75457800000004</v>
+      </c>
+      <c r="F48">
+        <v>523.09798371428599</v>
+      </c>
+      <c r="G48">
+        <v>514.82866000000001</v>
+      </c>
+      <c r="H48">
+        <v>456.70085942857099</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>52.925918000000024</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>66.397124285714995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>25</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>441.83404999999999</v>
+      </c>
+      <c r="F49">
+        <v>395.04097542857102</v>
+      </c>
+      <c r="G49">
+        <v>265.39475199999998</v>
+      </c>
+      <c r="H49">
+        <v>223.44151557142899</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>176.43929800000001</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>171.59945985714202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>25</v>
+      </c>
+      <c r="D50">
+        <v>25</v>
+      </c>
+      <c r="E50">
+        <v>510.71050000000002</v>
+      </c>
+      <c r="F50">
+        <v>468.017782714286</v>
+      </c>
+      <c r="G50">
+        <v>443.79090600000001</v>
+      </c>
+      <c r="H50">
+        <v>398.23743128571402</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>66.919594000000018</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>69.780351428571976</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>25</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="E51">
+        <v>517.89817200000005</v>
+      </c>
+      <c r="F51">
+        <v>453.47355185714298</v>
+      </c>
+      <c r="G51">
+        <v>489.79011700000001</v>
+      </c>
+      <c r="H51">
+        <v>442.62500828571399</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>28.108055000000036</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>10.848543571428991</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>100</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>326.95347500000003</v>
+      </c>
+      <c r="F52">
+        <v>282.05517171428602</v>
+      </c>
+      <c r="G52">
+        <v>234.42427699999999</v>
+      </c>
+      <c r="H52">
+        <v>180.60144028571401</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>92.529198000000036</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>101.45373142857201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>100</v>
+      </c>
+      <c r="D53">
+        <v>25</v>
+      </c>
+      <c r="E53">
+        <v>513.01024800000005</v>
+      </c>
+      <c r="F53">
+        <v>461.53774385714303</v>
+      </c>
+      <c r="G53">
+        <v>408.45192100000003</v>
+      </c>
+      <c r="H53">
+        <v>361.96043357142901</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>104.55832700000002</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>99.57731028571402</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>100</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
+      </c>
+      <c r="E54">
+        <v>496.83353099999999</v>
+      </c>
+      <c r="F54">
+        <v>471.39040399999999</v>
+      </c>
+      <c r="G54">
+        <v>483.16745700000001</v>
+      </c>
+      <c r="H54">
+        <v>427.10118271428598</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>13.666073999999981</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>44.289221285714007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>25</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>742.75470299999995</v>
+      </c>
+      <c r="F55">
+        <v>711.17981671428595</v>
+      </c>
+      <c r="G55">
+        <v>378.42443300000002</v>
+      </c>
+      <c r="H55">
+        <v>346.20737857142899</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>364.33026999999993</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>364.97243814285696</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>25</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>25</v>
+      </c>
+      <c r="E56">
+        <v>756.65530899999999</v>
+      </c>
+      <c r="F56">
+        <v>705.37019285714302</v>
+      </c>
+      <c r="G56">
+        <v>557.56840299999999</v>
+      </c>
+      <c r="H56">
+        <v>499.02939357142901</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>199.086906</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>206.34079928571401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>12</v>
+      </c>
+      <c r="B57">
+        <v>25</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>100</v>
+      </c>
+      <c r="E57">
+        <v>613.31804899999997</v>
+      </c>
+      <c r="F57">
+        <v>580.03037600000005</v>
+      </c>
+      <c r="G57">
+        <v>529.88083300000005</v>
+      </c>
+      <c r="H57">
+        <v>476.844036571429</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>83.437215999999921</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>103.18633942857105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>13</v>
+      </c>
+      <c r="B58">
+        <v>25</v>
+      </c>
+      <c r="C58">
+        <v>25</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>737.76162299999999</v>
+      </c>
+      <c r="F58">
+        <v>687.43723242857095</v>
+      </c>
+      <c r="G58">
+        <v>374.29699099999999</v>
+      </c>
+      <c r="H58">
+        <v>343.39077900000001</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>363.46463199999999</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>344.04645342857094</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>14</v>
+      </c>
+      <c r="B59">
+        <v>25</v>
+      </c>
+      <c r="C59">
+        <v>25</v>
+      </c>
+      <c r="D59">
+        <v>25</v>
+      </c>
+      <c r="E59">
+        <v>756.20030399999996</v>
+      </c>
+      <c r="F59">
+        <v>709.11023671428597</v>
+      </c>
+      <c r="G59">
+        <v>477.59735000000001</v>
+      </c>
+      <c r="H59">
+        <v>447.94840071428598</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>278.60295399999995</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>261.16183599999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>15</v>
+      </c>
+      <c r="B60">
+        <v>25</v>
+      </c>
+      <c r="C60">
+        <v>25</v>
+      </c>
+      <c r="D60">
+        <v>100</v>
+      </c>
+      <c r="E60">
+        <v>638.64381100000003</v>
+      </c>
+      <c r="F60">
+        <v>606.01732357142896</v>
+      </c>
+      <c r="G60">
+        <v>467.97702700000002</v>
+      </c>
+      <c r="H60">
+        <v>438.22164657142901</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>170.66678400000001</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>167.79567699999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>16</v>
+      </c>
+      <c r="B61">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <v>100</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>645.53915800000004</v>
+      </c>
+      <c r="F61">
+        <v>604.24256357142895</v>
+      </c>
+      <c r="G61">
+        <v>334.85337099999998</v>
+      </c>
+      <c r="H61">
+        <v>265.09138414285701</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>310.68578700000006</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>339.15117942857194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>17</v>
+      </c>
+      <c r="B62">
+        <v>25</v>
+      </c>
+      <c r="C62">
+        <v>100</v>
+      </c>
+      <c r="D62">
+        <v>25</v>
+      </c>
+      <c r="E62">
+        <v>712.52834299999995</v>
+      </c>
+      <c r="F62">
+        <v>628.77443457142897</v>
+      </c>
+      <c r="G62">
+        <v>426.22474299999999</v>
+      </c>
+      <c r="H62">
+        <v>388.78754199999997</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>286.30359999999996</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>239.986892571429</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>18</v>
+      </c>
+      <c r="B63">
+        <v>25</v>
+      </c>
+      <c r="C63">
+        <v>100</v>
+      </c>
+      <c r="D63">
+        <v>100</v>
+      </c>
+      <c r="E63">
+        <v>581.66116099999999</v>
+      </c>
+      <c r="F63">
+        <v>540.56723942857104</v>
+      </c>
+      <c r="G63">
+        <v>477.86685499999999</v>
+      </c>
+      <c r="H63">
+        <v>428.264146428571</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>103.79430600000001</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>112.30309300000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>19</v>
+      </c>
+      <c r="B64">
+        <v>100</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>918.06228899999996</v>
+      </c>
+      <c r="F64">
+        <v>859.29009985714299</v>
+      </c>
+      <c r="G64">
+        <v>459.07202799999999</v>
+      </c>
+      <c r="H64">
+        <v>411.330268285714</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>458.99026099999998</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>447.95983157142899</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>20</v>
+      </c>
+      <c r="B65">
+        <v>100</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>25</v>
+      </c>
+      <c r="E65">
+        <v>819.51390800000001</v>
+      </c>
+      <c r="F65">
+        <v>781.16427142857106</v>
+      </c>
+      <c r="G65">
+        <v>581.99035200000003</v>
+      </c>
+      <c r="H65">
+        <v>553.95188742857204</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>237.52355599999999</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>227.21238399999902</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>21</v>
+      </c>
+      <c r="B66">
+        <v>100</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>100</v>
+      </c>
+      <c r="E66">
+        <v>714.36275899999998</v>
+      </c>
+      <c r="F66">
+        <v>672.56121742857204</v>
+      </c>
+      <c r="G66">
+        <v>494.37399900000003</v>
+      </c>
+      <c r="H66">
+        <v>455.305225857143</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>219.98875999999996</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="1"/>
+        <v>217.25599157142904</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>22</v>
+      </c>
+      <c r="B67">
+        <v>100</v>
+      </c>
+      <c r="C67">
+        <v>25</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>908.52528900000004</v>
+      </c>
+      <c r="F67">
+        <v>860.20853099999999</v>
+      </c>
+      <c r="G67">
+        <v>649.08526300000005</v>
+      </c>
+      <c r="H67">
+        <v>592.97664628571397</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="0"/>
+        <v>259.44002599999999</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="1"/>
+        <v>267.23188471428602</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>23</v>
+      </c>
+      <c r="B68">
+        <v>100</v>
+      </c>
+      <c r="C68">
+        <v>25</v>
+      </c>
+      <c r="D68">
+        <v>25</v>
+      </c>
+      <c r="E68">
+        <v>825.21270500000003</v>
+      </c>
+      <c r="F68">
+        <v>757.17620057142904</v>
+      </c>
+      <c r="G68">
+        <v>599.12260100000003</v>
+      </c>
+      <c r="H68">
+        <v>567.98321185714303</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="0"/>
+        <v>226.090104</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="1"/>
+        <v>189.192988714286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>24</v>
+      </c>
+      <c r="B69">
+        <v>100</v>
+      </c>
+      <c r="C69">
+        <v>25</v>
+      </c>
+      <c r="D69">
+        <v>100</v>
+      </c>
+      <c r="E69">
+        <v>674.98322499999995</v>
+      </c>
+      <c r="F69">
+        <v>636.38216485714304</v>
+      </c>
+      <c r="G69">
+        <v>503.93653499999999</v>
+      </c>
+      <c r="H69">
+        <v>480.98923428571402</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="0"/>
+        <v>171.04668999999996</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="1"/>
+        <v>155.39293057142902</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>25</v>
+      </c>
+      <c r="B70">
+        <v>100</v>
+      </c>
+      <c r="C70">
+        <v>100</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>767.48652100000004</v>
+      </c>
+      <c r="F70">
+        <v>694.02378042857094</v>
+      </c>
+      <c r="G70">
+        <v>588.12765100000001</v>
+      </c>
+      <c r="H70">
+        <v>526.59098257142898</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="0"/>
+        <v>179.35887000000002</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="1"/>
+        <v>167.43279785714196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>26</v>
+      </c>
+      <c r="B71">
+        <v>100</v>
+      </c>
+      <c r="C71">
+        <v>100</v>
+      </c>
+      <c r="D71">
+        <v>25</v>
+      </c>
+      <c r="E71">
+        <v>769.05222500000002</v>
+      </c>
+      <c r="F71">
+        <v>715.91466985714305</v>
+      </c>
+      <c r="G71">
+        <v>557.970688</v>
+      </c>
+      <c r="H71">
+        <v>525.805770142857</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="0"/>
+        <v>211.08153700000003</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="1"/>
+        <v>190.10889971428605</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>27</v>
+      </c>
+      <c r="B72">
+        <v>100</v>
+      </c>
+      <c r="C72">
+        <v>100</v>
+      </c>
+      <c r="D72">
+        <v>100</v>
+      </c>
+      <c r="E72">
+        <v>625.97862599999996</v>
+      </c>
+      <c r="F72">
+        <v>568.67522814285701</v>
+      </c>
+      <c r="G72">
+        <v>509.509592</v>
+      </c>
+      <c r="H72">
+        <v>473.780996571429</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="0"/>
+        <v>116.46903399999997</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="1"/>
+        <v>94.894231571428008</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>10</v>
+      </c>
+      <c r="B93" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>13</v>
+      </c>
+      <c r="B96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>15</v>
+      </c>
+      <c r="B98" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>17</v>
+      </c>
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>18</v>
+      </c>
+      <c r="B101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>19</v>
+      </c>
+      <c r="B102" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>20</v>
+      </c>
+      <c r="B103" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>21</v>
+      </c>
+      <c r="B104" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>22</v>
+      </c>
+      <c r="B105" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>23</v>
+      </c>
+      <c r="B106" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>24</v>
+      </c>
+      <c r="B107" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>25</v>
+      </c>
+      <c r="B108" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>26</v>
+      </c>
+      <c r="B109" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>27</v>
+      </c>
+      <c r="B110" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
